--- a/semantic-segmentation/model_performance.xlsx
+++ b/semantic-segmentation/model_performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.azamov\PycharmProjects\Land-Cover-Classification\semantic-segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odil\PycharmProjects\Land-Cover-Classification\semantic_segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857469F-CBD4-4456-961C-F013AC060D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247028A-C729-4CC7-B3D8-88422AADAC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>mIoU</t>
   </si>
@@ -49,13 +49,25 @@
   </si>
   <si>
     <t>SegFormer45</t>
+  </si>
+  <si>
+    <t>Open Earth Map dataset</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>LoveDA dataset Urban</t>
+  </si>
+  <si>
+    <t>LoveDA dataset Rural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +75,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,12 +115,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,92 +401,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C4">
         <v>0.32010502853734302</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>0.59947310256957997</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C5">
         <v>0.40647216029442601</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>0.75549265205860106</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C6">
         <v>0.45429354231727598</v>
       </c>
-      <c r="C4">
+      <c r="D6">
         <v>0.79017069339752199</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C7" s="1">
         <v>0.46175618748908698</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D7" s="1">
         <v>0.80167946839332505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C8" s="1">
         <v>0.46250689010721702</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D8" s="1">
         <v>0.80194653391838</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="C9">
         <v>0.455043548535846</v>
       </c>
-      <c r="C7">
+      <c r="D9">
         <v>0.79884574747085502</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/semantic-segmentation/model_performance.xlsx
+++ b/semantic-segmentation/model_performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.azamov\PycharmProjects\Land-Cover-Classification\semantic-segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3A73F-0552-4C30-A1B3-01238A0B5314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F8F6A-5AFB-4CF3-8A18-74E717862F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>mIoU</t>
   </si>
@@ -61,13 +61,37 @@
   </si>
   <si>
     <t>OpenEarthMap Dataset</t>
+  </si>
+  <si>
+    <t>SegFormer 1000 x 1000</t>
+  </si>
+  <si>
+    <t>SegFormer 650 x 650</t>
+  </si>
+  <si>
+    <t>SegFormer 20</t>
+  </si>
+  <si>
+    <t>SegFormer 25</t>
+  </si>
+  <si>
+    <t>SegFormer 10</t>
+  </si>
+  <si>
+    <t>SegFormer 30</t>
+  </si>
+  <si>
+    <t>SegFormer 35</t>
+  </si>
+  <si>
+    <t>SegFormer 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +113,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,13 +155,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,193 +445,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.32010502853734302</v>
-      </c>
-      <c r="C3">
-        <v>0.59947310256957997</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0.13729304543840401</v>
-      </c>
-      <c r="G3">
-        <v>0.235962988538367</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>0.199795685157379</v>
-      </c>
-      <c r="K3">
-        <v>0.33016701236059498</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.40647216029442601</v>
+        <v>0.32010502853734302</v>
       </c>
       <c r="C4">
-        <v>0.75549265205860106</v>
+        <v>0.59947310256957997</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0.223945561208547</v>
+        <v>0.13729304543840401</v>
       </c>
       <c r="G4">
-        <v>0.38769335324515403</v>
+        <v>0.235962988538367</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0.28228526826952299</v>
+        <v>0.199795685157379</v>
       </c>
       <c r="K4">
-        <v>0.45650796176849201</v>
+        <v>0.33016701236059498</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.40647216029442601</v>
+      </c>
+      <c r="C5">
+        <v>0.75549265205860106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.223945561208547</v>
+      </c>
+      <c r="G5">
+        <v>0.38769335324515403</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.28228526826952299</v>
+      </c>
+      <c r="K5">
+        <v>0.45650796176849201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.45429354231727598</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.79017069339752199</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.239709349007248</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0.39822313021267602</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>0.28038285934663698</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>0.45166095082475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.46175618748908698</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.80167946839332505</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.46175618748908698</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.80167946839332505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.46250689010721702</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>0.80194653391838</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.455043548535846</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.79884574747085502</v>
       </c>
     </row>
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.39222538630745502</v>
+      </c>
+      <c r="C15">
+        <v>0.77411957931518505</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0.201884319088321</v>
+      </c>
+      <c r="G15">
+        <v>0.37018727066277901</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0.26148040278660301</v>
+      </c>
+      <c r="K15">
+        <v>0.44787871160690002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.40578250938303301</v>
+      </c>
+      <c r="C16">
+        <v>0.78518194043636302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>0.20557563437097701</v>
+      </c>
+      <c r="G16">
+        <v>0.39715628084518201</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>0.25313948480277898</v>
+      </c>
+      <c r="K16">
+        <v>0.45270402009728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.404837492507646</v>
+      </c>
+      <c r="C17">
+        <v>0.78289551854133599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.411674851245039</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.78103799927234596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.412035169001293</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.78332926464080799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.40541416372729999</v>
+      </c>
+      <c r="C20">
+        <v>0.78260260760784095</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/semantic-segmentation/model_performance.xlsx
+++ b/semantic-segmentation/model_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.azamov\PycharmProjects\Land-Cover-Classification\semantic-segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odil\PycharmProjects\Land-Cover-Classification\semantic_segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F8F6A-5AFB-4CF3-8A18-74E717862F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247028A-C729-4CC7-B3D8-88422AADAC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>mIoU</t>
   </si>
@@ -51,47 +51,23 @@
     <t>SegFormer45</t>
   </si>
   <si>
-    <t>LoveDA Dataset Rural</t>
-  </si>
-  <si>
-    <t>LoveDA Dataset Urban</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>OpenEarthMap Dataset</t>
-  </si>
-  <si>
-    <t>SegFormer 1000 x 1000</t>
-  </si>
-  <si>
-    <t>SegFormer 650 x 650</t>
-  </si>
-  <si>
-    <t>SegFormer 20</t>
-  </si>
-  <si>
-    <t>SegFormer 25</t>
-  </si>
-  <si>
-    <t>SegFormer 10</t>
-  </si>
-  <si>
-    <t>SegFormer 30</t>
-  </si>
-  <si>
-    <t>SegFormer 35</t>
-  </si>
-  <si>
-    <t>SegFormer 40</t>
+    <t>Open Earth Map dataset</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>LoveDA dataset Urban</t>
+  </si>
+  <si>
+    <t>LoveDA dataset Rural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,22 +78,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,19 +115,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,376 +401,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.32010502853734302</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.59947310256957997</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>0.13729304543840401</v>
-      </c>
-      <c r="G4">
-        <v>0.235962988538367</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>0.199795685157379</v>
-      </c>
-      <c r="K4">
-        <v>0.33016701236059498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.40647216029442601</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.75549265205860106</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.223945561208547</v>
-      </c>
-      <c r="G5">
-        <v>0.38769335324515403</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>0.28228526826952299</v>
-      </c>
-      <c r="K5">
-        <v>0.45650796176849201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.45429354231727598</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.79017069339752199</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>0.239709349007248</v>
-      </c>
-      <c r="G6">
-        <v>0.39822313021267602</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>0.28038285934663698</v>
-      </c>
-      <c r="K6">
-        <v>0.45166095082475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>0.46175618748908698</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.80167946839332505</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>0.46250689010721702</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.80194653391838</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.455043548535846</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.79884574747085502</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.39222538630745502</v>
-      </c>
-      <c r="C15">
-        <v>0.77411957931518505</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>0.201884319088321</v>
-      </c>
-      <c r="G15">
-        <v>0.37018727066277901</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15">
-        <v>0.26148040278660301</v>
-      </c>
-      <c r="K15">
-        <v>0.44787871160690002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.40578250938303301</v>
-      </c>
-      <c r="C16">
-        <v>0.78518194043636302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>0.20557563437097701</v>
-      </c>
-      <c r="G16">
-        <v>0.39715628084518201</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16">
-        <v>0.25313948480277898</v>
-      </c>
-      <c r="K16">
-        <v>0.45270402009728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.404837492507646</v>
-      </c>
-      <c r="C17">
-        <v>0.78289551854133599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.411674851245039</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.78103799927234596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.412035169001293</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.78332926464080799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.40541416372729999</v>
-      </c>
-      <c r="C20">
-        <v>0.78260260760784095</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:K12"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/semantic-segmentation/model_performance.xlsx
+++ b/semantic-segmentation/model_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odil\PycharmProjects\Land-Cover-Classification\semantic_segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.azamov\PycharmProjects\Land-Cover-Classification\semantic-segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247028A-C729-4CC7-B3D8-88422AADAC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F8F6A-5AFB-4CF3-8A18-74E717862F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>mIoU</t>
   </si>
@@ -51,23 +51,47 @@
     <t>SegFormer45</t>
   </si>
   <si>
-    <t>Open Earth Map dataset</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>LoveDA dataset Urban</t>
-  </si>
-  <si>
-    <t>LoveDA dataset Rural</t>
+    <t>LoveDA Dataset Rural</t>
+  </si>
+  <si>
+    <t>LoveDA Dataset Urban</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>OpenEarthMap Dataset</t>
+  </si>
+  <si>
+    <t>SegFormer 1000 x 1000</t>
+  </si>
+  <si>
+    <t>SegFormer 650 x 650</t>
+  </si>
+  <si>
+    <t>SegFormer 20</t>
+  </si>
+  <si>
+    <t>SegFormer 25</t>
+  </si>
+  <si>
+    <t>SegFormer 10</t>
+  </si>
+  <si>
+    <t>SegFormer 30</t>
+  </si>
+  <si>
+    <t>SegFormer 35</t>
+  </si>
+  <si>
+    <t>SegFormer 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +102,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,7 +138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,15 +155,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,155 +445,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.32010502853734302</v>
+      </c>
+      <c r="C4">
+        <v>0.59947310256957997</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.13729304543840401</v>
+      </c>
+      <c r="G4">
+        <v>0.235962988538367</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.199795685157379</v>
+      </c>
+      <c r="K4">
+        <v>0.33016701236059498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.40647216029442601</v>
+      </c>
+      <c r="C5">
+        <v>0.75549265205860106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.223945561208547</v>
+      </c>
+      <c r="G5">
+        <v>0.38769335324515403</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.28228526826952299</v>
+      </c>
+      <c r="K5">
+        <v>0.45650796176849201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.45429354231727598</v>
+      </c>
+      <c r="C6">
+        <v>0.79017069339752199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.239709349007248</v>
+      </c>
+      <c r="G6">
+        <v>0.39822313021267602</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.28038285934663698</v>
+      </c>
+      <c r="K6">
+        <v>0.45166095082475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.46175618748908698</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.80167946839332505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.46250689010721702</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.80194653391838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.455043548535846</v>
+      </c>
+      <c r="C9">
+        <v>0.79884574747085502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.32010502853734302</v>
-      </c>
-      <c r="D4">
-        <v>0.59947310256957997</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.40647216029442601</v>
-      </c>
-      <c r="D5">
-        <v>0.75549265205860106</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.45429354231727598</v>
-      </c>
-      <c r="D6">
-        <v>0.79017069339752199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.46175618748908698</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.80167946839332505</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.46250689010721702</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.80194653391838</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0.455043548535846</v>
-      </c>
-      <c r="D9">
-        <v>0.79884574747085502</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.39222538630745502</v>
+      </c>
+      <c r="C15">
+        <v>0.77411957931518505</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0.201884319088321</v>
+      </c>
+      <c r="G15">
+        <v>0.37018727066277901</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>0.26148040278660301</v>
+      </c>
+      <c r="K15">
+        <v>0.44787871160690002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.40578250938303301</v>
+      </c>
+      <c r="C16">
+        <v>0.78518194043636302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>0.20557563437097701</v>
+      </c>
+      <c r="G16">
+        <v>0.39715628084518201</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>0.25313948480277898</v>
+      </c>
+      <c r="K16">
+        <v>0.45270402009728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.404837492507646</v>
+      </c>
+      <c r="C17">
+        <v>0.78289551854133599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.411674851245039</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.78103799927234596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.412035169001293</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.78332926464080799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.40541416372729999</v>
+      </c>
+      <c r="C20">
+        <v>0.78260260760784095</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
